--- a/src/main/resources/cases/register.xlsx
+++ b/src/main/resources/cases/register.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1CB71B6-8CEF-904E-BD1B-ECF0B862D965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF034B7-26F2-6046-AE91-A25784D9E52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9000" yWindow="-19980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="用例" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,26 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
-    <t>是否为正向用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误条件提示值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>003@qq.com</t>
   </si>
   <si>
@@ -93,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>已存在用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,6 +82,30 @@
   </si>
   <si>
     <t>满足条件的注册数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc(用例描述)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username(用户名)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password(密码)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PasswordConfirm(重复密码)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsPostive(是否为正向用例)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpectedTips(错误条件提示值)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,38 +452,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="28" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -491,11 +491,11 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -503,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
         <v>123123</v>
@@ -515,7 +515,7 @@
         <v>123123</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -523,13 +523,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -537,13 +537,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -551,16 +551,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
         <v>123</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
         <v>123123</v>
@@ -580,7 +580,7 @@
         <v>123122</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -588,16 +588,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
         <v>123123</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
         <v>123123</v>

--- a/src/main/resources/cases/register.xlsx
+++ b/src/main/resources/cases/register.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF034B7-26F2-6046-AE91-A25784D9E52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBE8BE1-BE57-1F4E-900C-58BE23F6FB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9000" yWindow="-19980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
